--- a/data.xlsx
+++ b/data.xlsx
@@ -5,19 +5,18 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google\work\ПОАР\Model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google\work\ПОАР\Model\simattack\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
-    <sheet name="Assets" sheetId="1" r:id="rId1"/>
-    <sheet name="Assets-Vuln" sheetId="7" r:id="rId2"/>
-    <sheet name="Vulnerabilities" sheetId="2" r:id="rId3"/>
-    <sheet name="C-Measures" sheetId="3" r:id="rId4"/>
-    <sheet name="Measures-Vuln-P" sheetId="4" r:id="rId5"/>
-    <sheet name="Measures-Vuln-D" sheetId="5" r:id="rId6"/>
+    <sheet name="Assets-Vuln" sheetId="7" r:id="rId1"/>
+    <sheet name="Vulnerabilities" sheetId="2" r:id="rId2"/>
+    <sheet name="C-Measures" sheetId="3" r:id="rId3"/>
+    <sheet name="Measures-Vuln-P" sheetId="4" r:id="rId4"/>
+    <sheet name="Measures-Vuln-D" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,14 +28,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="49">
   <si>
     <t>Сервер1</t>
   </si>
   <si>
-    <t>Сеть1</t>
-  </si>
-  <si>
     <t>Помещение1</t>
   </si>
   <si>
@@ -49,43 +45,16 @@
     <t>id</t>
   </si>
   <si>
-    <t>valuable</t>
-  </si>
-  <si>
-    <t>TTR</t>
-  </si>
-  <si>
-    <t>Network</t>
-  </si>
-  <si>
-    <t>Local</t>
-  </si>
-  <si>
-    <t>Physical</t>
-  </si>
-  <si>
-    <t>маршрутизатор1</t>
-  </si>
-  <si>
     <t>Здание1</t>
   </si>
   <si>
     <t>АРМ1</t>
   </si>
   <si>
-    <t>Сеть2</t>
-  </si>
-  <si>
     <t>Помещение2</t>
   </si>
   <si>
     <t>ОС АРМ</t>
-  </si>
-  <si>
-    <t>SCADA Client</t>
-  </si>
-  <si>
-    <t>Сеть1, Сеть2</t>
   </si>
   <si>
     <t>AV</t>
@@ -212,17 +181,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -251,9 +211,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -534,236 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,42 +512,42 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="J1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="K1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -825,7 +558,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -839,7 +572,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -853,7 +586,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -867,7 +600,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -881,7 +614,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -904,7 +637,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
@@ -919,54 +652,54 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H2">
         <v>0.5</v>
@@ -977,25 +710,25 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H3">
         <v>0.1</v>
@@ -1006,25 +739,25 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H4">
         <v>0.3</v>
@@ -1035,25 +768,25 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H5">
         <v>0.2</v>
@@ -1064,25 +797,25 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H6">
         <v>0.9</v>
@@ -1093,25 +826,25 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H7">
         <v>0.5</v>
@@ -1125,7 +858,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -1141,21 +874,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1163,10 +896,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1174,10 +907,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C4">
         <v>30</v>
@@ -1185,10 +918,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1196,10 +929,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C6">
         <v>100</v>
@@ -1210,7 +943,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -1222,30 +955,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>0.4</v>
@@ -1268,7 +1001,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1291,7 +1024,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1314,7 +1047,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1337,7 +1070,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1363,7 +1096,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -1375,30 +1108,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>0.6</v>
@@ -1421,7 +1154,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B3">
         <v>0.2</v>
@@ -1444,7 +1177,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1467,7 +1200,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1490,7 +1223,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B6">
         <v>1</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Assets-Vuln" sheetId="7" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="50">
   <si>
     <t>Сервер1</t>
   </si>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t>SCADA client</t>
+  </si>
+  <si>
+    <t>P_d</t>
   </si>
 </sst>
 </file>
@@ -495,7 +498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -860,10 +863,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -872,7 +875,7 @@
     <col min="3" max="3" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -882,8 +885,11 @@
       <c r="C1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -894,7 +900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -905,7 +911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -915,8 +921,11 @@
       <c r="C4">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -927,7 +936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -936,6 +945,9 @@
       </c>
       <c r="C6">
         <v>100</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -948,7 +960,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="A4" sqref="A4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1101,7 +1113,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
